--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -12,18 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>1p9</t>
   </si>
   <si>
     <t>2t8</t>
-  </si>
-  <si>
-    <t>qwerty1p9</t>
-  </si>
-  <si>
-    <t>qwerty2t8</t>
   </si>
 </sst>
 </file>
@@ -58,10 +52,10 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -70,7 +64,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -82,14 +76,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>1p9</t>
+    <t>The confirmation message that the system plays to the called party after the called party opts out to DNC.</t>
   </si>
   <si>
     <t>2t8</t>
@@ -54,8 +54,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -66,10 +69,10 @@
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
